--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08493414-C1CF-4CDE-924E-59E87EB9EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C9A49-979F-4668-AB78-9748564369C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,12 +72,6 @@
     <t>IBARRA MONSALVE ALIDY COROMOTO</t>
   </si>
   <si>
-    <t>GONZALEZ OLIVEROS ALEXANDER JOSE</t>
-  </si>
-  <si>
-    <t>PULGAR TORRES YUNETT THAIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">SANCHEZ GUAITA JOSE MANUEL </t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>NOMBRE Y APELLIDO</t>
+  </si>
+  <si>
+    <t>FREDDY CASTILLO FALCON</t>
+  </si>
+  <si>
+    <t>MILLAN RODRIGUEZ ROBERT</t>
   </si>
 </sst>
 </file>
@@ -477,25 +480,25 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,81 +509,81 @@
         <v>10489904</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>11157858</v>
+        <v>10535788</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>12356764</v>
+        <v>11157858</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>12385498</v>
+        <v>12356764</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>12485463</v>
+        <v>12385498</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>12688247</v>
+        <v>12485463</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>13253938</v>
+        <v>12688247</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>13318706</v>
+        <v>13253938</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -588,35 +591,35 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>13866847</v>
+        <v>13318706</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>14164878</v>
+        <v>13866847</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15822799</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14559180</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -624,26 +627,26 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>15822799</v>
+        <v>15844087</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>15844087</v>
+        <v>16619220</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>17078510</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>18930154</v>
@@ -665,18 +668,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>19509009</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>20674916</v>
@@ -687,13 +690,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>16619220</v>
+        <v>25205113</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C9A49-979F-4668-AB78-9748564369C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD3F9C-D4E2-49CD-BF6F-E9F414C1BC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
@@ -28,25 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
-  <si>
-    <t>PRIETO YOSMARY ENCARNACION</t>
-  </si>
-  <si>
-    <t>SUPERVISOR FORANEOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ QUINTERO ALBIS INES</t>
-  </si>
-  <si>
-    <t>SUPERVISOR ALEDAÑOS</t>
-  </si>
-  <si>
-    <t>CONTRERAS MARQUINA NANCY COROMOTO</t>
-  </si>
-  <si>
-    <t>VILORIA EDGAR ALEXANDER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>SUPERVISOR TORRE</t>
   </si>
@@ -57,18 +39,9 @@
     <t>COORDINADOR</t>
   </si>
   <si>
-    <t>LUNA GONZALEZ MONICA MARIVY</t>
-  </si>
-  <si>
-    <t>MATO PARIATA LEMMY DAYANA</t>
-  </si>
-  <si>
     <t>SUPERVISOR</t>
   </si>
   <si>
-    <t>CUMANA CARMEN</t>
-  </si>
-  <si>
     <t>IBARRA MONSALVE ALIDY COROMOTO</t>
   </si>
   <si>
@@ -78,21 +51,6 @@
     <t>JEFE DE OPERACIONES</t>
   </si>
   <si>
-    <t>CASTILLO GRANADILLO JESSICA MARIA</t>
-  </si>
-  <si>
-    <t>SARAT ANGULO JICET DEL CARMEN</t>
-  </si>
-  <si>
-    <t>BRAVO JIMENEZ NAYDAN YANELY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOBAR GUIA MARILIN ANDREINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ PEÑA MAIKELLY YASNARIELA </t>
-  </si>
-  <si>
     <t>C.I</t>
   </si>
   <si>
@@ -111,7 +69,46 @@
     <t>FREDDY CASTILLO FALCON</t>
   </si>
   <si>
-    <t>MILLAN RODRIGUEZ ROBERT</t>
+    <t>ALBIS SANCHEZ</t>
+  </si>
+  <si>
+    <t>MAIKELLY YASNARIELA MARTINEZ PEÑA</t>
+  </si>
+  <si>
+    <t>JESSICA MARIA CASTILLO GRANADILLO</t>
+  </si>
+  <si>
+    <t>EDGAR ALEXANDER VILORIA</t>
+  </si>
+  <si>
+    <t>MARILIN ANDREINA ESCOBAR GUIA</t>
+  </si>
+  <si>
+    <t>ROBERT JOSE MILLAN RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>NANCY CONTRERAS</t>
+  </si>
+  <si>
+    <t>NAYDAN YANETT BRAVO JIMENEZ</t>
+  </si>
+  <si>
+    <t>LEMMY DAYANA MATO PARIATA</t>
+  </si>
+  <si>
+    <t>JICET DEL CARMEN SARAT ANGULO</t>
+  </si>
+  <si>
+    <t>MONICA MARIVY LUNA GONZALEZ</t>
+  </si>
+  <si>
+    <t>VICTOR ERNESTO RIOS TURIZO</t>
+  </si>
+  <si>
+    <t>JESUS DIAZ</t>
+  </si>
+  <si>
+    <t>SUPERVISOR FOREANEO</t>
   </si>
 </sst>
 </file>
@@ -480,226 +477,232 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>10489904</v>
+        <v>15822799</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>10535788</v>
+        <v>12485463</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13866847</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11157858</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>12356764</v>
+        <v>16619220</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>12385498</v>
+        <v>10535788</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>12485463</v>
+        <v>12385498</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>12688247</v>
+        <v>25205112</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>13253938</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>13318706</v>
+        <v>17078510</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>13866847</v>
+        <v>12356764</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>15822799</v>
+        <v>18930154</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>15844087</v>
+        <v>12688247</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>16619220</v>
+        <v>16576053</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>17078510</v>
+        <v>11157858</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>18930154</v>
+        <v>20674916</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>19509009</v>
+        <v>15844087</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>20674916</v>
+        <v>19509009</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>25205113</v>
+        <v>18535738</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{4CC5A57C-91B6-444D-8529-7B1769585D5D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD3F9C-D4E2-49CD-BF6F-E9F414C1BC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C839DE-0337-438F-98D4-DCA477DD0451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
@@ -545,156 +545,156 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>10535788</v>
+        <v>11157858</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>12385498</v>
+        <v>20674916</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>25205112</v>
+        <v>15844087</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>13253938</v>
+        <v>19509009</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>17078510</v>
+        <v>18535738</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>12356764</v>
+        <v>10535788</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>18930154</v>
+        <v>12385498</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>12688247</v>
+        <v>25205112</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>16576053</v>
+        <v>13253938</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>11157858</v>
+        <v>17078510</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>20674916</v>
+        <v>12356764</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>15844087</v>
+        <v>18930154</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>19509009</v>
+        <v>12688247</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>18535738</v>
+        <v>16576053</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C839DE-0337-438F-98D4-DCA477DD0451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE9759-D389-4721-8A06-26353F3E286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>JESSICA MARIA CASTILLO GRANADILLO</t>
   </si>
   <si>
-    <t>EDGAR ALEXANDER VILORIA</t>
-  </si>
-  <si>
     <t>MARILIN ANDREINA ESCOBAR GUIA</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>SUPERVISOR FOREANEO</t>
+  </si>
+  <si>
+    <t>ANGEL LUIS VARGAS CASTILLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,12 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +486,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +587,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>19509009</v>
@@ -589,7 +598,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>18535738</v>
@@ -611,10 +620,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12385498</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11439909</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -622,7 +631,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>25205112</v>
@@ -633,7 +642,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>13253938</v>
@@ -644,7 +653,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>17078510</v>
@@ -655,46 +664,46 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>12356764</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>18930154</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>12688247</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>16576053</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE9759-D389-4721-8A06-26353F3E286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA96BCB-75E0-4127-977F-1C55A816083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>SUPERVISOR TORRE</t>
   </si>
@@ -66,9 +66,6 @@
     <t>NOMBRE Y APELLIDO</t>
   </si>
   <si>
-    <t>FREDDY CASTILLO FALCON</t>
-  </si>
-  <si>
     <t>ALBIS SANCHEZ</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>ANGEL LUIS VARGAS CASTILLO</t>
+  </si>
+  <si>
+    <t>KIRA PLANCHART</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ALEDAÑOS</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +172,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +490,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,18 +558,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>11157858</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>20674916</v>
@@ -576,7 +580,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>15844087</v>
@@ -587,7 +591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>19509009</v>
@@ -598,7 +602,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>18535738</v>
@@ -608,11 +612,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>10535788</v>
+        <v>16954727</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -620,7 +624,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>11439909</v>
@@ -631,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>25205112</v>
@@ -642,7 +646,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>13253938</v>
@@ -653,7 +657,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>17078510</v>
@@ -664,46 +668,46 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>12356764</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>18930154</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>12688247</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>16576053</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BD SUPER.xlsx
+++ b/BD SUPER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\streamlit\rrhh_y_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA96BCB-75E0-4127-977F-1C55A816083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00B9B67-80BA-4F8B-AB10-6D002E67153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20E4A7F5-E5D8-4028-9219-BCA76ED923B4}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>CARGOS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHIRINO ALIS </t>
-  </si>
-  <si>
     <t>ESPECIALISTA RRHH</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>ALBIS SANCHEZ</t>
   </si>
   <si>
-    <t>MAIKELLY YASNARIELA MARTINEZ PEÑA</t>
-  </si>
-  <si>
     <t>JESSICA MARIA CASTILLO GRANADILLO</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>SUPERVISOR ALEDAÑOS</t>
+  </si>
+  <si>
+    <t>MARIA ROJAS</t>
+  </si>
+  <si>
+    <t>RONALD REYES</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -547,32 +547,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15208536</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>16619220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>11157858</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>20674916</v>
+        <v>15844087</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>15844087</v>
+        <v>19509009</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -591,32 +591,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>19509009</v>
+        <v>18535738</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
+      <c r="A10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>18535738</v>
+        <v>16954727</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
-        <v>16954727</v>
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11439909</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11439909</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25205112</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>25205112</v>
+        <v>13253938</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>13253938</v>
+        <v>17078510</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -657,35 +657,35 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>17078510</v>
+        <v>12356764</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>12356764</v>
+        <v>18930154</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>18930154</v>
+        <v>12688247</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,21 +693,21 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>12688247</v>
+        <v>16576053</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
+      <c r="A19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>16576053</v>
+        <v>12475429</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
